--- a/DemoWebShop_project/src/test/resources/TestScriptData.xlsx
+++ b/DemoWebShop_project/src/test/resources/TestScriptData.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\eclipse-workspace\seleniumOnline_Fireflink\DemoWebShop_project\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD749BB3-6B73-4E58-A4BD-312F1393D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1636D858-0E3C-43E7-A9DD-9062A849431E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
     <sheet name="ShoppingCart" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,12 +43,6 @@
     <t>Expected Title</t>
   </si>
   <si>
-    <t>abhis1234@gmail.com</t>
-  </si>
-  <si>
-    <t>abhis@1234</t>
-  </si>
-  <si>
     <t>Demo Web Shop. Shopping Cart</t>
   </si>
   <si>
@@ -61,12 +50,18 @@
   </si>
   <si>
     <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>shambhavi.bn@testyantra.com</t>
+  </si>
+  <si>
+    <t>Shambhavi@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,21 +446,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA577524-102E-45C1-A6D1-D40AFECFBA29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,50 +468,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C8724533-6F79-4572-8895-6967F70BAD03}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{936A741E-5320-44AC-A125-9359F932AD01}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6688633-590F-4087-A600-E4B15D12158F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
